--- a/Records.xlsx
+++ b/Records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -77,28 +77,22 @@
     <t>RANK</t>
   </si>
   <si>
-    <t>ENOCH</t>
-  </si>
-  <si>
-    <t>KUBI</t>
-  </si>
-  <si>
-    <t>AMPEM</t>
+    <t>OWUSU</t>
+  </si>
+  <si>
+    <t>DENIS</t>
   </si>
   <si>
     <t>Male</t>
   </si>
   <si>
-    <t>0546777787</t>
-  </si>
-  <si>
-    <t>GHA-1000000000-2</t>
-  </si>
-  <si>
-    <t>prignutt@gmail.com</t>
-  </si>
-  <si>
-    <t>sniiiiiiiiiiiiiiiiiii</t>
+    <t>0222222222</t>
+  </si>
+  <si>
+    <t>GHA-1222222</t>
+  </si>
+  <si>
+    <t>trolligold@gmail.com</t>
   </si>
   <si>
     <t>Yes</t>
@@ -113,13 +107,13 @@
     <t>1989-10-23</t>
   </si>
   <si>
-    <t>BSC. INFORMATION TECNOLOGY</t>
-  </si>
-  <si>
-    <t>Upper East</t>
-  </si>
-  <si>
-    <t>Senior Superintendent II</t>
+    <t>BSC. ENGLISH EDUCATION</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Senior Superintendent I</t>
   </si>
 </sst>
 </file>
@@ -471,18 +465,18 @@
     <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="31" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="28" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -552,52 +546,50 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1220016</v>
+        <v>1220017</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2"/>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2">
+        <v>22222222</v>
+      </c>
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2">
+        <v>300</v>
+      </c>
+      <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
       </c>
-      <c r="N2">
-        <v>200</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>31</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
       </c>
       <c r="R2">
         <v>2019</v>
@@ -606,7 +598,7 @@
         <v>2023</v>
       </c>
       <c r="T2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Records.xlsx
+++ b/Records.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -75,45 +75,6 @@
   </si>
   <si>
     <t>RANK</t>
-  </si>
-  <si>
-    <t>OWUSU</t>
-  </si>
-  <si>
-    <t>DENIS</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>0222222222</t>
-  </si>
-  <si>
-    <t>GHA-1222222</t>
-  </si>
-  <si>
-    <t>trolligold@gmail.com</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>ad888888888888888</t>
-  </si>
-  <si>
-    <t>reg11111111111</t>
-  </si>
-  <si>
-    <t>1989-10-23</t>
-  </si>
-  <si>
-    <t>BSC. ENGLISH EDUCATION</t>
-  </si>
-  <si>
-    <t>Western</t>
-  </si>
-  <si>
-    <t>Senior Superintendent I</t>
   </si>
 </sst>
 </file>
@@ -449,7 +410,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +424,20 @@
     <col min="4" max="4" width="17" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="15" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="19" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="6" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="8" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="21" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="5" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -539,66 +500,6 @@
       </c>
       <c r="T1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1220017</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>22222222</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2">
-        <v>300</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2">
-        <v>2019</v>
-      </c>
-      <c r="S2">
-        <v>2023</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
